--- a/FinalAdjacencyMatrix.xlsx
+++ b/FinalAdjacencyMatrix.xlsx
@@ -340,24 +340,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -368,16 +368,25 @@
       <c r="G1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -391,13 +400,22 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -406,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -414,10 +432,19 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -429,16 +456,25 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -446,22 +482,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -475,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -483,8 +528,17 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -495,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -504,6 +558,111 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
